--- a/xlsx/triangle_quartic.xlsx
+++ b/xlsx/triangle_quartic.xlsx
@@ -620,10 +620,10 @@
         <v>-1.4088952461275697</v>
       </c>
       <c r="E2">
-        <v>-3.0411334533554641</v>
+        <v>-3.041133453355464</v>
       </c>
       <c r="F2">
-        <v>-2.770616271760955</v>
+        <v>-2.9947142160627886</v>
       </c>
       <c r="G2">
         <v>-3.0548969899130718</v>
@@ -643,10 +643,10 @@
         <v>-1.7838395883498823</v>
       </c>
       <c r="E3">
-        <v>-4.3163209809493308</v>
+        <v>-4.316320980949331</v>
       </c>
       <c r="F3">
-        <v>-4.2771332685680026</v>
+        <v>-4.263572248055064</v>
       </c>
       <c r="G3">
         <v>-4.3917128932538283</v>
@@ -666,10 +666,10 @@
         <v>-2.0903043897648432</v>
       </c>
       <c r="E4">
-        <v>-6.0720087325927317</v>
+        <v>-6.150400340416311</v>
       </c>
       <c r="F4">
-        <v>-6.2172157068239775</v>
+        <v>-6.216474723648395</v>
       </c>
       <c r="G4">
         <v>-6.3997499384075454</v>
@@ -689,10 +689,10 @@
         <v>-2.3713885022638186</v>
       </c>
       <c r="E5">
-        <v>-7.4884718350818247</v>
+        <v>-7.765273154932779</v>
       </c>
       <c r="F5">
-        <v>-7.7642031773893674</v>
+        <v>-7.790625814263248</v>
       </c>
       <c r="G5">
         <v>-8.0181899424217136</v>
@@ -769,7 +769,7 @@
         <v>-2.4432742039670847</v>
       </c>
       <c r="F2">
-        <v>-2.3684232999822372</v>
+        <v>-2.4355085180606486</v>
       </c>
       <c r="G2">
         <v>-2.4518806371067567</v>
@@ -792,7 +792,7 @@
         <v>-3.6820870094088054</v>
       </c>
       <c r="F3">
-        <v>-3.6693042093665036</v>
+        <v>-3.661417991998495</v>
       </c>
       <c r="G3">
         <v>-3.6966259665549273</v>
@@ -812,10 +812,10 @@
         <v>-1.9639111709951893</v>
       </c>
       <c r="E4">
-        <v>-5.0183849396052427</v>
+        <v>-5.042003415164903</v>
       </c>
       <c r="F4">
-        <v>-5.0404701036264408</v>
+        <v>-5.034499245711469</v>
       </c>
       <c r="G4">
         <v>-5.0430958165432482</v>
@@ -835,10 +835,10 @@
         <v>-2.2594588515996188</v>
       </c>
       <c r="E5">
-        <v>-6.2885591509582728</v>
+        <v>-6.329406419074698</v>
       </c>
       <c r="F5">
-        <v>-6.3346835784647206</v>
+        <v>-6.329222025725446</v>
       </c>
       <c r="G5">
         <v>-6.340501761490672</v>
@@ -909,10 +909,10 @@
         <v>-1.2790789163467009</v>
       </c>
       <c r="E2">
-        <v>-2.1095229405202458</v>
+        <v>-2.109522940520246</v>
       </c>
       <c r="F2">
-        <v>-2.0612867263097026</v>
+        <v>-2.1058859344144465</v>
       </c>
       <c r="G2">
         <v>-2.1206168862502905</v>
@@ -935,10 +935,10 @@
         <v>-1.3013224390393481</v>
       </c>
       <c r="E3">
-        <v>-3.1361235807315091</v>
+        <v>-3.136123580731509</v>
       </c>
       <c r="F3">
-        <v>-3.1215975413573229</v>
+        <v>-3.112664751039102</v>
       </c>
       <c r="G3">
         <v>-3.1522084488584938</v>
@@ -961,10 +961,10 @@
         <v>-1.2501814360947281</v>
       </c>
       <c r="E4">
-        <v>-4.2452923809295351</v>
+        <v>-4.272003869145257</v>
       </c>
       <c r="F4">
-        <v>-4.2693014759545891</v>
+        <v>-4.256734429660607</v>
       </c>
       <c r="G4">
         <v>-4.2765812271033026</v>
@@ -987,10 +987,10 @@
         <v>-1.3422297965905237</v>
       </c>
       <c r="E5">
-        <v>-5.2643460120040686</v>
+        <v>-5.315054288904368</v>
       </c>
       <c r="F5">
-        <v>-5.3225276282812723</v>
+        <v>-5.314890771450604</v>
       </c>
       <c r="G5">
         <v>-5.3344590160761074</v>
@@ -1063,10 +1063,10 @@
         <v>-1.1744201623910659</v>
       </c>
       <c r="E2">
-        <v>-1.6131599331866151</v>
+        <v>-1.613159933186615</v>
       </c>
       <c r="F2">
-        <v>-1.5893031966054827</v>
+        <v>-1.6116661737729794</v>
       </c>
       <c r="G2">
         <v>-1.6179313736294023</v>
@@ -1092,7 +1092,7 @@
         <v>-2.2677203058845468</v>
       </c>
       <c r="F3">
-        <v>-2.2633860638491061</v>
+        <v>-2.2610117892739887</v>
       </c>
       <c r="G3">
         <v>-2.2714426709042774</v>
@@ -1115,10 +1115,10 @@
         <v>-0.88707269404615108</v>
       </c>
       <c r="E4">
-        <v>-2.8931454335773141</v>
+        <v>-2.8966909959864293</v>
       </c>
       <c r="F4">
-        <v>-2.8961781052057689</v>
+        <v>-2.8957453397765724</v>
       </c>
       <c r="G4">
         <v>-2.8974354897710803</v>
@@ -1141,10 +1141,10 @@
         <v>-0.73740344582171213</v>
       </c>
       <c r="E5">
-        <v>-3.5065733015690368</v>
+        <v>-3.5088702733613317</v>
       </c>
       <c r="F5">
-        <v>-3.5092221920474485</v>
+        <v>-3.508843636723337</v>
       </c>
       <c r="G5">
         <v>-3.5097058450239738</v>

--- a/xlsx/triangle_quartic.xlsx
+++ b/xlsx/triangle_quartic.xlsx
@@ -608,7 +608,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-1.7658702375664381</v>
+        <v>-1.2191614888741826</v>
       </c>
       <c r="B2">
         <v>-1.4024822386199665</v>
@@ -617,21 +617,21 @@
         <v>-1.763897314907655</v>
       </c>
       <c r="D2">
-        <v>-1.4088952461275697</v>
+        <v>-1.2103550565508279</v>
       </c>
       <c r="E2">
-        <v>-3.041133453355464</v>
+        <v>-2.98310250478942</v>
       </c>
       <c r="F2">
-        <v>-2.9947142160627886</v>
+        <v>-2.994714216047023</v>
       </c>
       <c r="G2">
-        <v>-3.0548969899130718</v>
+        <v>-3.0548969899117444</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-1.9358814973547533</v>
+        <v>-1.5248058113992438</v>
       </c>
       <c r="B3">
         <v>-1.7673800804985542</v>
@@ -640,21 +640,21 @@
         <v>-1.9411247867486856</v>
       </c>
       <c r="D3">
-        <v>-1.7838395883498823</v>
+        <v>-1.5365233218968306</v>
       </c>
       <c r="E3">
-        <v>-4.316320980949331</v>
+        <v>-4.316320980685497</v>
       </c>
       <c r="F3">
-        <v>-4.263572248055064</v>
+        <v>-4.263572248280362</v>
       </c>
       <c r="G3">
-        <v>-4.3917128932538283</v>
+        <v>-4.3917128931991884</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-2.1718653579497107</v>
+        <v>-1.783307353005739</v>
       </c>
       <c r="B4">
         <v>-2.0871709114408366</v>
@@ -663,21 +663,21 @@
         <v>-2.173655489250952</v>
       </c>
       <c r="D4">
-        <v>-2.0903043897648432</v>
+        <v>-1.792155697695779</v>
       </c>
       <c r="E4">
-        <v>-6.150400340416311</v>
+        <v>-6.150400322372137</v>
       </c>
       <c r="F4">
-        <v>-6.216474723648395</v>
+        <v>-6.216474675671059</v>
       </c>
       <c r="G4">
-        <v>-6.3997499384075454</v>
+        <v>-6.399749943976173</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-2.5390920854359327</v>
+        <v>-2.162521264212169</v>
       </c>
       <c r="B5">
         <v>-2.4048752212474138</v>
@@ -686,16 +686,16 @@
         <v>-2.516040664573784</v>
       </c>
       <c r="D5">
-        <v>-2.3713885022638186</v>
+        <v>-2.1625121182795257</v>
       </c>
       <c r="E5">
-        <v>-7.765273154932779</v>
+        <v>-7.765265357323959</v>
       </c>
       <c r="F5">
-        <v>-7.790625814263248</v>
+        <v>-7.790627284514361</v>
       </c>
       <c r="G5">
-        <v>-8.0181899424217136</v>
+        <v>-8.018191444511281</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-1.69093204138072</v>
+        <v>-1.1806035666552859</v>
       </c>
       <c r="B2">
         <v>-1.3665613706433413</v>
@@ -763,21 +763,21 @@
         <v>-1.6874155588412652</v>
       </c>
       <c r="D2">
-        <v>-1.3724610921546334</v>
+        <v>-1.171707385311759</v>
       </c>
       <c r="E2">
-        <v>-2.4432742039670847</v>
+        <v>-2.431041653400637</v>
       </c>
       <c r="F2">
-        <v>-2.4355085180606486</v>
+        <v>-2.4355085180568987</v>
       </c>
       <c r="G2">
-        <v>-2.4518806371067567</v>
+        <v>-2.4518806371057873</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-1.7190580234730586</v>
+        <v>-1.4701499463717198</v>
       </c>
       <c r="B3">
         <v>-1.6584739639993846</v>
@@ -786,21 +786,21 @@
         <v>-1.721355299776546</v>
       </c>
       <c r="D3">
-        <v>-1.6715124734089188</v>
+        <v>-1.4810301425689945</v>
       </c>
       <c r="E3">
-        <v>-3.6820870094088054</v>
+        <v>-3.6820870092060023</v>
       </c>
       <c r="F3">
-        <v>-3.661417991998495</v>
+        <v>-3.6614179917833236</v>
       </c>
       <c r="G3">
-        <v>-3.6966259665549273</v>
+        <v>-3.6966259665375225</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-1.972874156479042</v>
+        <v>-1.7542114439722376</v>
       </c>
       <c r="B4">
         <v>-1.9620125295544062</v>
@@ -809,21 +809,21 @@
         <v>-1.9736720360158453</v>
       </c>
       <c r="D4">
-        <v>-1.9639111709951893</v>
+        <v>-1.75780565309517</v>
       </c>
       <c r="E4">
-        <v>-5.042003415164903</v>
+        <v>-5.042003415389984</v>
       </c>
       <c r="F4">
-        <v>-5.034499245711469</v>
+        <v>-5.034499239782182</v>
       </c>
       <c r="G4">
-        <v>-5.0430958165432482</v>
+        <v>-5.043095815086709</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-2.282201570881697</v>
+        <v>-2.134477684612615</v>
       </c>
       <c r="B5">
         <v>-2.27809489292745</v>
@@ -832,16 +832,16 @@
         <v>-2.273345256897974</v>
       </c>
       <c r="D5">
-        <v>-2.2594588515996188</v>
+        <v>-2.134468422764162</v>
       </c>
       <c r="E5">
-        <v>-6.329406419074698</v>
+        <v>-6.329406616151166</v>
       </c>
       <c r="F5">
-        <v>-6.329222025725446</v>
+        <v>-6.329221703994813</v>
       </c>
       <c r="G5">
-        <v>-6.340501761490672</v>
+        <v>-6.340501568276618</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +897,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-1.5041753290528568</v>
+        <v>-1.0903118107555299</v>
       </c>
       <c r="B2">
         <v>-1.2748879009436405</v>
@@ -906,16 +906,16 @@
         <v>-1.5055756579615838</v>
       </c>
       <c r="D2">
-        <v>-1.2790789163467009</v>
+        <v>-1.0809122728961702</v>
       </c>
       <c r="E2">
-        <v>-2.109522940520246</v>
+        <v>-2.103028062123134</v>
       </c>
       <c r="F2">
-        <v>-2.1058859344144465</v>
+        <v>-2.1058859344130285</v>
       </c>
       <c r="G2">
-        <v>-2.1206168862502905</v>
+        <v>-2.1206168862506067</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-1.2731357710920912</v>
+        <v>-1.213078736487047</v>
       </c>
       <c r="B3">
         <v>-1.2903733656799583</v>
@@ -932,16 +932,16 @@
         <v>-1.2793509322499448</v>
       </c>
       <c r="D3">
-        <v>-1.3013224390393481</v>
+        <v>-1.2224041397231173</v>
       </c>
       <c r="E3">
-        <v>-3.136123580731509</v>
+        <v>-3.1361235805689267</v>
       </c>
       <c r="F3">
-        <v>-3.112664751039102</v>
+        <v>-3.112664751044544</v>
       </c>
       <c r="G3">
-        <v>-3.1522084488584938</v>
+        <v>-3.1522084487581896</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-1.246680970032347</v>
+        <v>-1.22073570736249</v>
       </c>
       <c r="B4">
         <v>-1.2494212402682801</v>
@@ -958,16 +958,16 @@
         <v>-1.247386592927542</v>
       </c>
       <c r="D4">
-        <v>-1.2501814360947281</v>
+        <v>-1.1980949736324962</v>
       </c>
       <c r="E4">
-        <v>-4.272003869145257</v>
+        <v>-4.272003869088605</v>
       </c>
       <c r="F4">
-        <v>-4.256734429660607</v>
+        <v>-4.2567344201758015</v>
       </c>
       <c r="G4">
-        <v>-4.2765812271033026</v>
+        <v>-4.276581226773191</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-1.3295048795455082</v>
+        <v>-1.3439382530491635</v>
       </c>
       <c r="B5">
         <v>-1.3342658299939076</v>
@@ -984,16 +984,16 @@
         <v>-1.3374799128518708</v>
       </c>
       <c r="D5">
-        <v>-1.3422297965905237</v>
+        <v>-1.3439374552030694</v>
       </c>
       <c r="E5">
-        <v>-5.315054288904368</v>
+        <v>-5.315054255203969</v>
       </c>
       <c r="F5">
-        <v>-5.314890771450604</v>
+        <v>-5.314890720864501</v>
       </c>
       <c r="G5">
-        <v>-5.3344590160761074</v>
+        <v>-5.334458972498886</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-1.2837515859571302</v>
+        <v>-1.0144337874961034</v>
       </c>
       <c r="B2">
         <v>-1.1707270811444639</v>
@@ -1060,16 +1060,16 @@
         <v>-1.2882105914096527</v>
       </c>
       <c r="D2">
-        <v>-1.1744201623910659</v>
+        <v>-1.0041126855912643</v>
       </c>
       <c r="E2">
-        <v>-1.613159933186615</v>
+        <v>-1.6102663954484873</v>
       </c>
       <c r="F2">
-        <v>-1.6116661737729794</v>
+        <v>-1.6116661737723625</v>
       </c>
       <c r="G2">
-        <v>-1.6179313736294023</v>
+        <v>-1.617931373630025</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.9877956786436018</v>
+        <v>-0.9851171843963302</v>
       </c>
       <c r="B3">
         <v>-1.0213646882043754</v>
@@ -1086,16 +1086,16 @@
         <v>-0.9968848923654536</v>
       </c>
       <c r="D3">
-        <v>-1.031651414731845</v>
+        <v>-0.9972827380203756</v>
       </c>
       <c r="E3">
-        <v>-2.2677203058845468</v>
+        <v>-2.2677203058839144</v>
       </c>
       <c r="F3">
-        <v>-2.2610117892739887</v>
+        <v>-2.2610117892809347</v>
       </c>
       <c r="G3">
-        <v>-2.2714426709042774</v>
+        <v>-2.2714426709109548</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.875166757331008</v>
+        <v>-0.8686858476576894</v>
       </c>
       <c r="B4">
         <v>-0.88367081168769901</v>
@@ -1112,16 +1112,16 @@
         <v>-0.8783965018864707</v>
       </c>
       <c r="D4">
-        <v>-0.88707269404615108</v>
+        <v>-0.758807072446022</v>
       </c>
       <c r="E4">
-        <v>-2.8966909959864293</v>
+        <v>-2.896690995937446</v>
       </c>
       <c r="F4">
-        <v>-2.8957453397765724</v>
+        <v>-2.8957453389808228</v>
       </c>
       <c r="G4">
-        <v>-2.8974354897710803</v>
+        <v>-2.897435489672465</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-0.7140120541008435</v>
+        <v>-0.7888652391237932</v>
       </c>
       <c r="B5">
         <v>-0.73210816822989577</v>
@@ -1138,16 +1138,16 @@
         <v>-0.7192198821296408</v>
       </c>
       <c r="D5">
-        <v>-0.73740344582171213</v>
+        <v>-0.7888533314957955</v>
       </c>
       <c r="E5">
-        <v>-3.5088702733613317</v>
+        <v>-3.5088702693272316</v>
       </c>
       <c r="F5">
-        <v>-3.508843636723337</v>
+        <v>-3.5088436319765375</v>
       </c>
       <c r="G5">
-        <v>-3.5097058450239738</v>
+        <v>-3.509705841134221</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
